--- a/data/affiliations_metal_wos.xlsx
+++ b/data/affiliations_metal_wos.xlsx
@@ -393,7 +393,7 @@
         <v>CHINESE ACADEMY OF SCIENCES</v>
       </c>
       <c r="B2">
-        <v>243</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3">
@@ -401,31 +401,31 @@
         <v>UNIVERSITY OF CHINESE ACADEMY OF SCIENCES CAS</v>
       </c>
       <c r="B3">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>UNIVERSITY OF SCIENCE TECHNOLOGY OF CHINA CAS</v>
+        <v>SICHUAN UNIVERSITY</v>
       </c>
       <c r="B4">
-        <v>51</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>SICHUAN UNIVERSITY</v>
+        <v>INDIAN INSTITUTE OF TECHNOLOGY SYSTEM IIT SYSTEM</v>
       </c>
       <c r="B5">
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>CHONGQING UNIVERSITY</v>
+        <v>MAX PLANCK SOCIETY</v>
       </c>
       <c r="B6">
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -433,135 +433,135 @@
         <v>HUAZHONG UNIVERSITY OF SCIENCE TECHNOLOGY</v>
       </c>
       <c r="B7">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>UNITED STATES DEPARTMENT OF ENERGY DOE</v>
+        <v>CENTRE NATIONAL DE LA RECHERCHE SCIENTIFIQUE CNRS</v>
       </c>
       <c r="B8">
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>TSINGHUA UNIVERSITY</v>
+        <v>UNITED STATES DEPARTMENT OF ENERGY DOE</v>
       </c>
       <c r="B9">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>UNIVERSITY OF SCIENCE TECHNOLOGY BEIJING</v>
+        <v>SOUTH CHINA UNIVERSITY OF TECHNOLOGY</v>
       </c>
       <c r="B10">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>INST COLOR SCI TECHNOL</v>
+        <v>UNIVERSITY OF SCIENCE TECHNOLOGY OF CHINA CAS</v>
       </c>
       <c r="B11">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>CENTRE NATIONAL DE LA RECHERCHE SCIENTIFIQUE CNRS</v>
+        <v>TSINGHUA UNIVERSITY</v>
       </c>
       <c r="B12">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>SOUTH CHINA UNIVERSITY OF TECHNOLOGY</v>
+        <v>ZHEJIANG UNIVERSITY</v>
       </c>
       <c r="B13">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>HARBIN INSTITUTE OF TECHNOLOGY</v>
+        <v>SHANDONG UNIVERSITY</v>
       </c>
       <c r="B14">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>NINGBO INSTITUTE OF MATERIALS TECHNOLOGY AND ENGINEERING CAS</v>
+        <v>UNIVERSITY OF CALIFORNIA SYSTEM</v>
       </c>
       <c r="B15">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>SOUTHEAST UNIVERSITY CHINA</v>
+        <v>DELFT UNIVERSITY OF TECHNOLOGY</v>
       </c>
       <c r="B16">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>BEIJING UNIVERSITY OF CHEMICAL TECHNOLOGY</v>
+        <v>XI AN JIAOTONG UNIVERSITY</v>
       </c>
       <c r="B17">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>DELFT UNIVERSITY OF TECHNOLOGY</v>
+        <v>NANJING UNIVERSITY</v>
       </c>
       <c r="B18">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>HELMHOLTZ ASSOCIATION</v>
+        <v>SOUTHEAST UNIVERSITY CHINA</v>
       </c>
       <c r="B19">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>SHANDONG UNIVERSITY</v>
+        <v>FRIEDRICH SCHILLER UNIVERSITY OF JENA</v>
       </c>
       <c r="B20">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>INDIAN INSTITUTE OF TECHNOLOGY SYSTEM IIT SYSTEM</v>
+        <v>HELMHOLTZ ASSOCIATION</v>
       </c>
       <c r="B21">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>INSTITUTE OF METAL RESEARCH CAS</v>
+        <v>INST COLOR SCI TECHNOL</v>
       </c>
       <c r="B22">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>JILIN UNIVERSITY</v>
+        <v>HARBIN INSTITUTE OF TECHNOLOGY</v>
       </c>
       <c r="B23">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
@@ -569,1423 +569,1423 @@
         <v>UNIVERSITY OF WISCONSIN SYSTEM</v>
       </c>
       <c r="B24">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>XI AN JIAOTONG UNIVERSITY</v>
+        <v>NINGBO INSTITUTE OF MATERIALS TECHNOLOGY AND ENGINEERING CAS</v>
       </c>
       <c r="B25">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>NANJING UNIVERSITY</v>
+        <v>UNIVERSITY OF SCIENCE TECHNOLOGY BEIJING</v>
       </c>
       <c r="B26">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>WUHAN UNIVERSITY OF TECHNOLOGY</v>
+        <v>BEIJING UNIVERSITY OF CHEMICAL TECHNOLOGY</v>
       </c>
       <c r="B27">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>ZHEJIANG UNIVERSITY</v>
+        <v>JILIN UNIVERSITY</v>
       </c>
       <c r="B28">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>ZHENGZHOU UNIVERSITY</v>
+        <v>CENTRAL SOUTH UNIVERSITY</v>
       </c>
       <c r="B29">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>INSTITUTE OF OCEANOLOGY CAS</v>
+        <v>MASSACHUSETTS INSTITUTE OF TECHNOLOGY MIT</v>
       </c>
       <c r="B30">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>MAX PLANCK SOCIETY</v>
+        <v>RUSSIAN ACADEMY OF SCIENCES</v>
       </c>
       <c r="B31">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>CENTRAL SOUTH UNIVERSITY</v>
+        <v>NANJING FORESTRY UNIVERSITY</v>
       </c>
       <c r="B32">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>CHINA UNIVERSITY OF PETROLEUM</v>
+        <v>UNIVERSITY SYSTEM OF OHIO</v>
       </c>
       <c r="B33">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>RUSSIAN ACADEMY OF SCIENCES</v>
+        <v>CHONGQING UNIVERSITY</v>
       </c>
       <c r="B34">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>OCEAN UNIVERSITY OF CHINA</v>
+        <v>UNIVERSITY OF WISCONSIN MILWAUKEE</v>
       </c>
       <c r="B35">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>LANZHOU INSTITUTE OF CHEMICAL PHYSICS CAS</v>
+        <v>INDIAN INSTITUTE OF TECHNOLOGY IIT KHARAGPUR</v>
       </c>
       <c r="B36">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>SHANDONG UNIVERSITY OF SCIENCE TECHNOLOGY</v>
+        <v>SHANGHAI JIAO TONG UNIVERSITY</v>
       </c>
       <c r="B37">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>SUN YAT SEN UNIVERSITY</v>
+        <v>ZHENGZHOU UNIVERSITY</v>
       </c>
       <c r="B38">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>UNIVERSITY OF WISCONSIN MILWAUKEE</v>
+        <v>TIANJIN UNIVERSITY</v>
       </c>
       <c r="B39">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>FRIEDRICH SCHILLER UNIVERSITY OF JENA</v>
+        <v>FUDAN UNIVERSITY</v>
       </c>
       <c r="B40">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>NANJING TECH UNIVERSITY</v>
+        <v>NATIONAL INSTITUTE OF TECHNOLOGY NIT SYSTEM</v>
       </c>
       <c r="B41">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>NANJING UNIVERSITY OF AERONAUTICS ASTRONAUTICS</v>
+        <v>WUHAN UNIVERSITY OF TECHNOLOGY</v>
       </c>
       <c r="B42">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>SHENZHEN UNIVERSITY</v>
+        <v>COUNCIL OF SCIENTIFIC INDUSTRIAL RESEARCH CSIR INDIA</v>
       </c>
       <c r="B43">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>HUNAN UNIVERSITY</v>
+        <v>SUN YAT SEN UNIVERSITY</v>
       </c>
       <c r="B44">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>QINGDAO UNIVERSITY OF SCIENCE TECHNOLOGY</v>
+        <v>NORTH CAROLINA STATE UNIVERSITY</v>
       </c>
       <c r="B45">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>SUNGKYUNKWAN UNIVERSITY SKKU</v>
+        <v>CHINA UNIVERSITY OF PETROLEUM</v>
       </c>
       <c r="B46">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>MASSACHUSETTS INSTITUTE OF TECHNOLOGY MIT</v>
+        <v>NANJING UNIVERSITY OF SCIENCE TECHNOLOGY</v>
       </c>
       <c r="B47">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>NORTHEASTERN UNIVERSITY CHINA</v>
+        <v>SOOCHOW UNIVERSITY CHINA</v>
       </c>
       <c r="B48">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>PEKING UNIVERSITY</v>
+        <v>SUNGKYUNKWAN UNIVERSITY SKKU</v>
       </c>
       <c r="B49">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>TIANJIN UNIVERSITY</v>
+        <v>LUDONG UNIVERSITY</v>
       </c>
       <c r="B50">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>COUNCIL OF SCIENTIFIC INDUSTRIAL RESEARCH CSIR INDIA</v>
+        <v>NANJING TECH UNIVERSITY</v>
       </c>
       <c r="B51">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>UNIVERSITY OF CALIFORNIA SYSTEM</v>
+        <v>NORTHWESTERN POLYTECHNICAL UNIVERSITY</v>
       </c>
       <c r="B52">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>BEIHANG UNIVERSITY</v>
+        <v>PEKING UNIVERSITY</v>
       </c>
       <c r="B53">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>CITY UNIVERSITY OF HONG KONG</v>
+        <v>DEPARTMENT OF SCIENCE TECHNOLOGY INDIA</v>
       </c>
       <c r="B54">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>CONSIGLIO NAZIONALE DELLE RICERCHE CNR</v>
+        <v>OCEAN UNIVERSITY OF CHINA</v>
       </c>
       <c r="B55">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>JIANGNAN UNIVERSITY</v>
+        <v>QILU UNIVERSITY OF TECHNOLOGY</v>
       </c>
       <c r="B56">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>NORTHWESTERN POLYTECHNICAL UNIVERSITY</v>
+        <v>SHENZHEN UNIVERSITY</v>
       </c>
       <c r="B57">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>SHANGHAI JIAO TONG UNIVERSITY</v>
+        <v>CONSEJO SUPERIOR DE INVESTIGACIONES CIENTIFICAS CSIC</v>
       </c>
       <c r="B58">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>SWISS FEDERAL INSTITUTES OF TECHNOLOGY DOMAIN</v>
+        <v>HUNAN UNIVERSITY</v>
       </c>
       <c r="B59">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>UNIVERSITY OF WOLLONGONG</v>
+        <v>INSTITUTE OF OCEANOLOGY CAS</v>
       </c>
       <c r="B60">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>UNIVERSITY SYSTEM OF OHIO</v>
+        <v>QINGDAO UNIVERSITY OF SCIENCE TECHNOLOGY</v>
       </c>
       <c r="B61">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>DALIAN UNIVERSITY OF TECHNOLOGY</v>
+        <v>UNIVERSITY OF TEXAS SYSTEM</v>
       </c>
       <c r="B62">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>FUDAN UNIVERSITY</v>
+        <v>JIANGNAN UNIVERSITY</v>
       </c>
       <c r="B63">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>GOLESTAN UNIVERSITY</v>
+        <v>NANJING UNIVERSITY OF AERONAUTICS ASTRONAUTICS</v>
       </c>
       <c r="B64">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>GUANGDONG UNIVERSITY OF TECHNOLOGY</v>
+        <v>SOUTHWEST PETROLEUM UNIVERSITY</v>
       </c>
       <c r="B65">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>KUNMING UNIVERSITY OF SCIENCE TECHNOLOGY</v>
+        <v>XIAMEN UNIVERSITY</v>
       </c>
       <c r="B66">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>NANJING FORESTRY UNIVERSITY</v>
+        <v>CNRS INSTITUTE OF CHEMISTRY INC</v>
       </c>
       <c r="B67">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>NANJING UNIVERSITY OF SCIENCE TECHNOLOGY</v>
+        <v>CONSIGLIO NAZIONALE DELLE RICERCHE CNR</v>
       </c>
       <c r="B68">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>NORTH CAROLINA STATE UNIVERSITY</v>
+        <v>DALIAN UNIVERSITY OF TECHNOLOGY</v>
       </c>
       <c r="B69">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>SOOCHOW UNIVERSITY CHINA</v>
+        <v>SWISS FEDERAL INSTITUTES OF TECHNOLOGY DOMAIN</v>
       </c>
       <c r="B70">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>UNIVERSITY OF ELECTRONIC SCIENCE TECHNOLOGY OF CHINA</v>
+        <v>TEXAS A M UNIVERSITY SYSTEM</v>
       </c>
       <c r="B71">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>DONGHUA UNIVERSITY</v>
+        <v>UNIVERSIDADE DE AVEIRO</v>
       </c>
       <c r="B72">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>NATIONAL INSTITUTE OF TECHNOLOGY NIT SYSTEM</v>
+        <v>UNIVERSITY OF ELECTRONIC SCIENCE TECHNOLOGY OF CHINA</v>
       </c>
       <c r="B73">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>BEIJING INSTITUTE OF TECHNOLOGY</v>
+        <v>INSTITUTE OF METAL RESEARCH CAS</v>
       </c>
       <c r="B74">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>GUANGXI UNIVERSITY</v>
+        <v>NANYANG TECHNOLOGICAL UNIVERSITY</v>
       </c>
       <c r="B75">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>HEBEI UNIVERSITY OF TECHNOLOGY</v>
+        <v>TEXAS A M UNIVERSITY COLLEGE STATION</v>
       </c>
       <c r="B76">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>LAOSHAN LABORATORY</v>
+        <v>TONGJI UNIVERSITY</v>
       </c>
       <c r="B77">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>SOUTHWEST PETROLEUM UNIVERSITY</v>
+        <v>YONSEI UNIVERSITY</v>
       </c>
       <c r="B78">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>STATE UNIVERSITY OF NEW YORK SUNY SYSTEM</v>
+        <v>BEIHANG UNIVERSITY</v>
       </c>
       <c r="B79">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>XIAMEN UNIVERSITY</v>
+        <v>CNRS INSTITUTE FOR ENGINEERING SYSTEMS SCIENCES INSIS</v>
       </c>
       <c r="B80">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>HONG KONG POLYTECHNIC UNIVERSITY</v>
+        <v>LANZHOU INSTITUTE OF CHEMICAL PHYSICS CAS</v>
       </c>
       <c r="B81">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>KARLSRUHE INSTITUTE OF TECHNOLOGY</v>
+        <v>NATIONAL UNIVERSITY OF SINGAPORE</v>
       </c>
       <c r="B82">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>KING FAHD UNIVERSITY OF PETROLEUM MINERALS</v>
+        <v>NORTHEASTERN UNIVERSITY CHINA</v>
       </c>
       <c r="B83">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>LUOYANG SHIP MAT RES INST</v>
+        <v>UNITED STATES DEPARTMENT OF DEFENSE</v>
       </c>
       <c r="B84">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>NATIONAL UNIVERSITY OF SINGAPORE</v>
+        <v>UNIVERSITY OF WOLLONGONG</v>
       </c>
       <c r="B85">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>SHENZHEN INSTITUTE OF ADVANCED TECHNOLOGY CAS</v>
+        <v>EAST CHINA UNIVERSITY OF SCIENCE TECHNOLOGY</v>
       </c>
       <c r="B86">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>TEXAS A M UNIVERSITY SYSTEM</v>
+        <v>MINIST EDUC</v>
       </c>
       <c r="B87">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>UNIVERSITY OF TENNESSEE KNOXVILLE</v>
+        <v>SHANDONG UNIVERSITY OF SCIENCE TECHNOLOGY</v>
       </c>
       <c r="B88">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>UNIVERSITY OF TENNESSEE SYSTEM</v>
+        <v>UNIVERSITY OF ILLINOIS SYSTEM</v>
       </c>
       <c r="B89">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>WUHAN UNIVERSITY</v>
+        <v>DONGHUA UNIVERSITY</v>
       </c>
       <c r="B90">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>CHINA WEST NORMAL UNIVERSITY</v>
+        <v>GOLESTAN UNIVERSITY</v>
       </c>
       <c r="B91">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>CNRS INSTITUTE OF CHEMISTRY INC</v>
+        <v>GUANGDONG UNIVERSITY OF TECHNOLOGY</v>
       </c>
       <c r="B92">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>CONSEJO SUPERIOR DE INVESTIGACIONES CIENTIFICAS CSIC</v>
+        <v>GUANGXI UNIVERSITY</v>
       </c>
       <c r="B93">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>EGYPTIAN KNOWLEDGE BANK EKB</v>
+        <v>HONG KONG POLYTECHNIC UNIVERSITY</v>
       </c>
       <c r="B94">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>HARBIN ENGINEERING UNIVERSITY</v>
+        <v>KARLSRUHE INSTITUTE OF TECHNOLOGY</v>
       </c>
       <c r="B95">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>INDIAN INSTITUTE OF TECHNOLOGY IIT KHARAGPUR</v>
+        <v>PETER THE GREAT ST PETERSBURG POLYTECHNIC UNIVERSITY</v>
       </c>
       <c r="B96">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>JIANGSU UNIVERSITY OF SCIENCE TECHNOLOGY</v>
+        <v>STATE UNIVERSITY OF NEW YORK SUNY SYSTEM</v>
       </c>
       <c r="B97">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>OAK RIDGE NATIONAL LABORATORY</v>
+        <v>UNIVERSITY OF ILLINOIS URBANA CHAMPAIGN</v>
       </c>
       <c r="B98">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>SHANGHAI UNIVERSITY</v>
+        <v>WUHAN UNIVERSITY</v>
       </c>
       <c r="B99">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>SOUTHERN UNIVERSITY OF SCIENCE TECHNOLOGY</v>
+        <v>HEBEI UNIVERSITY OF TECHNOLOGY</v>
       </c>
       <c r="B100">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>TEXAS A M UNIVERSITY COLLEGE STATION</v>
+        <v>JIANGSU UNIVERSITY OF SCIENCE TECHNOLOGY</v>
       </c>
       <c r="B101">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>UNITED STATES DEPARTMENT OF DEFENSE</v>
+        <v>LAOSHAN LABORATORY</v>
       </c>
       <c r="B102">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>UNIVERSITY OF ILLINOIS SYSTEM</v>
+        <v>NANKAI UNIVERSITY</v>
       </c>
       <c r="B103">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>UNIVERSITY OF QUEENSLAND</v>
+        <v>NINGBO UNIVERSITY</v>
       </c>
       <c r="B104">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>VRIJE UNIVERSITEIT BRUSSEL</v>
+        <v>STANFORD UNIVERSITY</v>
       </c>
       <c r="B105">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>YONSEI UNIVERSITY</v>
+        <v>TECHNICAL INSTITUTE OF PHYSICS CHEMISTRY CAS</v>
       </c>
       <c r="B106">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>FOSHAN UNIVERSITY</v>
+        <v>UNIVERSITY OF TOKYO</v>
       </c>
       <c r="B107">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>FUZHOU UNIVERSITY</v>
+        <v>ARGONNE NATIONAL LABORATORY</v>
       </c>
       <c r="B108">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>HELMHOLTZ ZENTRUM HEREON</v>
+        <v>COMMUNAUTE UNIVERSITE GRENOBLE ALPES</v>
       </c>
       <c r="B109">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>HENAN UNIVERSITY</v>
+        <v>DEAKIN UNIVERSITY</v>
       </c>
       <c r="B110">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>INSTITUTE OF PHYSICS CAS</v>
+        <v>EGYPTIAN KNOWLEDGE BANK EKB</v>
       </c>
       <c r="B111">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>MONASH UNIVERSITY</v>
+        <v>JIANGSU UNIVERSITY</v>
       </c>
       <c r="B112">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>NINGBO UNIVERSITY</v>
+        <v>KUNMING UNIVERSITY OF SCIENCE TECHNOLOGY</v>
       </c>
       <c r="B113">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>STANFORD UNIVERSITY</v>
+        <v>MONASH UNIVERSITY</v>
       </c>
       <c r="B114">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>TECHNICAL INSTITUTE OF PHYSICS CHEMISTRY CAS</v>
+        <v>OAK RIDGE NATIONAL LABORATORY</v>
       </c>
       <c r="B115">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>UNIVERSITY OF TOKYO</v>
+        <v>TECHNISCHE UNIVERSITAT DRESDEN</v>
       </c>
       <c r="B116">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>CHINA UNIVERSITY OF MINING TECHNOLOGY</v>
+        <v>BEIJING INSTITUTE OF TECHNOLOGY</v>
       </c>
       <c r="B117">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>CNRS INSTITUTE FOR ENGINEERING SYSTEMS SCIENCES INSIS</v>
+        <v>CEA</v>
       </c>
       <c r="B118">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>ECOLE POLYTECHNIQUE FEDERALE DE LAUSANNE</v>
+        <v>INSTITUTE OF PHYSICS CAS</v>
       </c>
       <c r="B119">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>HONG KONG UNIVERSITY OF SCIENCE TECHNOLOGY</v>
+        <v>MCGILL UNIVERSITY</v>
       </c>
       <c r="B120">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>JIANGSU UNIVERSITY</v>
+        <v>NORTHWESTERN UNIVERSITY</v>
       </c>
       <c r="B121">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>KOREA INSTITUTE OF SCIENCE TECHNOLOGY KIST</v>
+        <v>SEOUL NATIONAL UNIVERSITY SNU</v>
       </c>
       <c r="B122">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>MINIST EDUC</v>
+        <v>STATE UNIVERSITY SYSTEM OF FLORIDA</v>
       </c>
       <c r="B123">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>NANKAI UNIVERSITY</v>
+        <v>UNIVERSITE GRENOBLE ALPES UGA</v>
       </c>
       <c r="B124">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>PETER THE GREAT ST PETERSBURG POLYTECHNIC UNIVERSITY</v>
+        <v>UNIVERSITY OF CALIFORNIA IRVINE</v>
       </c>
       <c r="B125">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>SEOUL NATIONAL UNIVERSITY SNU</v>
+        <v>UNIVERSITY OF TEXAS AUSTIN</v>
       </c>
       <c r="B126">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>SOUTHWEST JIAOTONG UNIVERSITY</v>
+        <v>AMIRKABIR UNIVERSITY OF TECHNOLOGY</v>
       </c>
       <c r="B127">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>TAIYUAN UNIVERSITY OF TECHNOLOGY</v>
+        <v>ANHUI UNIVERSITY</v>
       </c>
       <c r="B128">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>TIANJIN UNIVERSITY OF TECHNOLOGY</v>
+        <v>CHINA UNIVERSITY OF MINING TECHNOLOGY</v>
       </c>
       <c r="B129">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>UNIVERSITY OF ILLINOIS URBANA CHAMPAIGN</v>
+        <v>CITY UNIVERSITY OF HONG KONG</v>
       </c>
       <c r="B130">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>UNIVERSITY SYSTEM OF GEORGIA</v>
+        <v>HEFEI UNIVERSITY OF TECHNOLOGY</v>
       </c>
       <c r="B131">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>YANTAI UNIVERSITY</v>
+        <v>HONG KONG UNIVERSITY OF SCIENCE TECHNOLOGY</v>
       </c>
       <c r="B132">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>AMIRKABIR UNIVERSITY OF TECHNOLOGY</v>
+        <v>INDIAN ASSOCIATION FOR THE CULTIVATION OF SCIENCE IACS JADAVPUR</v>
       </c>
       <c r="B133">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>BEIJING UNIVERSITY OF TECHNOLOGY</v>
+        <v>PENNSYLVANIA COMMONWEALTH SYSTEM OF HIGHER EDUCATION PCSHE</v>
       </c>
       <c r="B134">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>CHANGCHUN UNIVERSITY OF TECHNOLOGY</v>
+        <v>SHENZHEN INSTITUTE OF ADVANCED TECHNOLOGY CAS</v>
       </c>
       <c r="B135">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>ISLAMIC AZAD UNIVERSITY</v>
+        <v>UNIVERSITY OF TENNESSEE KNOXVILLE</v>
       </c>
       <c r="B136">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>JINAN UNIVERSITY</v>
+        <v>UNIVERSITY OF TENNESSEE SYSTEM</v>
       </c>
       <c r="B137">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>KOREA UNIVERSITY</v>
+        <v>UNIVERSITY SYSTEM OF GEORGIA</v>
       </c>
       <c r="B138">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>NANCHANG HANGKONG UNIVERSITY</v>
+        <v>VISVA BHARATI UNIVERSITY</v>
       </c>
       <c r="B139">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>PENNSYLVANIA COMMONWEALTH SYSTEM OF HIGHER EDUCATION PCSHE</v>
+        <v>CARNEGIE MELLON UNIVERSITY</v>
       </c>
       <c r="B140">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>PENNSYLVANIA STATE UNIVERSITY</v>
+        <v>ECOLE POLYTECHNIQUE FEDERALE DE LAUSANNE</v>
       </c>
       <c r="B141">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>PENNSYLVANIA STATE UNIVERSITY UNIVERSITY PARK</v>
+        <v>HEFEI INSTITUTES OF PHYSICAL SCIENCE CAS</v>
       </c>
       <c r="B142">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>QILU UNIVERSITY OF TECHNOLOGY</v>
+        <v>KING FAHD UNIVERSITY OF PETROLEUM MINERALS</v>
       </c>
       <c r="B143">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>SICHUAN UNIVERSITY OF SCIENCE ENGINEERING</v>
+        <v>NATIONAL INSTITUTE FOR MATERIALS SCIENCE</v>
       </c>
       <c r="B144">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>TONGJI UNIVERSITY</v>
+        <v>PENNSYLVANIA STATE UNIVERSITY</v>
       </c>
       <c r="B145">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>UNIVERSITY OF JINAN</v>
+        <v>PENNSYLVANIA STATE UNIVERSITY UNIVERSITY PARK</v>
       </c>
       <c r="B146">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>UNIVERSITY OF NEBRASKA SYSTEM</v>
+        <v>POLYTECHNIC UNIVERSITY OF TURIN</v>
       </c>
       <c r="B147">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>UNIVERSITY OF TEXAS SYSTEM</v>
+        <v>PURDUE UNIVERSITY</v>
       </c>
       <c r="B148">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>UNIVERSITY OF WISCONSIN MADISON</v>
+        <v>PURDUE UNIVERSITY SYSTEM</v>
       </c>
       <c r="B149">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>XI AN TECHNOLOGICAL UNIVERSITY</v>
+        <v>SHAANXI UNIVERSITY OF SCIENCE TECHNOLOGY</v>
       </c>
       <c r="B150">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>ZHEJIANG UNIVERSITY OF TECHNOLOGY</v>
+        <v>SOUTHERN UNIVERSITY OF SCIENCE TECHNOLOGY</v>
       </c>
       <c r="B151">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>ACADEMY OF SCIENTIFIC INNOVATIVE RESEARCH ACSIR</v>
+        <v>UNIVERSIDADE DE COIMBRA</v>
       </c>
       <c r="B152">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>ANHUI UNIVERSITY</v>
+        <v>UNIVERSIDADE DE LISBOA</v>
       </c>
       <c r="B153">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>ARGONNE NATIONAL LABORATORY</v>
+        <v>VRIJE UNIVERSITEIT BRUSSEL</v>
       </c>
       <c r="B154">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>BROOKHAVEN NATIONAL LABORATORY</v>
+        <v>YANGZHOU UNIVERSITY</v>
       </c>
       <c r="B155">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>CHANGZHOU UNIVERSITY</v>
+        <v>YANSHAN UNIVERSITY</v>
       </c>
       <c r="B156">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>CHINESE ACADEMY OF ENGINEERING PHYSICS</v>
+        <v>ACADEMY OF SCIENTIFIC INNOVATIVE RESEARCH ACSIR</v>
       </c>
       <c r="B157">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>CHINESE ACADEMY OF FORESTRY</v>
+        <v>BEIJING FORESTRY UNIVERSITY</v>
       </c>
       <c r="B158">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>DALIAN INSTITUTE OF CHEMICAL PHYSICS CAS</v>
+        <v>CHANGZHOU UNIVERSITY</v>
       </c>
       <c r="B159">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>DEAKIN UNIVERSITY</v>
+        <v>DUTCH POLYMER INSTITUTE</v>
       </c>
       <c r="B160">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>HEFEI INSTITUTES OF PHYSICAL SCIENCE CAS</v>
+        <v>IRAN POLYMER PETROCHEMICAL INSTITUTE</v>
       </c>
       <c r="B161">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>HOHAI UNIVERSITY</v>
+        <v>LOS ALAMOS NATIONAL LABORATORY</v>
       </c>
       <c r="B162">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>IRAN POLYMER PETROCHEMICAL INSTITUTE</v>
+        <v>LUOYANG SHIP MAT RES INST</v>
       </c>
       <c r="B163">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>KYUNG HEE UNIVERSITY</v>
+        <v>MARTIN LUTHER UNIVERSITY HALLE WITTENBERG</v>
       </c>
       <c r="B164">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>LANZHOU UNIVERSITY OF TECHNOLOGY</v>
+        <v>POHANG UNIVERSITY OF SCIENCE TECHNOLOGY POSTECH</v>
       </c>
       <c r="B165">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>MCGILL UNIVERSITY</v>
+        <v>QINGDAO UNIVERSITY</v>
       </c>
       <c r="B166">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>NANYANG TECHNOLOGICAL UNIVERSITY</v>
+        <v>SAINT PETERSBURG STATE UNIVERSITY</v>
       </c>
       <c r="B167">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>POHANG UNIVERSITY OF SCIENCE TECHNOLOGY POSTECH</v>
+        <v>SHANDONG UNIVERSITY OF TECHNOLOGY</v>
       </c>
       <c r="B168">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>PURDUE UNIVERSITY</v>
+        <v>SOUTHWEST JIAOTONG UNIVERSITY</v>
       </c>
       <c r="B169">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>PURDUE UNIVERSITY SYSTEM</v>
+        <v>UNIVERSITE DE LORRAINE</v>
       </c>
       <c r="B170">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>QINGDAO UNIVERSITY</v>
+        <v>UNIVERSITY OF CALIFORNIA SAN DIEGO</v>
       </c>
       <c r="B171">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>QINGDAO UNIVERSITY OF TECHNOLOGY</v>
+        <v>UNIVERSITY OF JINAN</v>
       </c>
       <c r="B172">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>SOUTH CHINA NORMAL UNIVERSITY</v>
+        <v>BROOKHAVEN NATIONAL LABORATORY</v>
       </c>
       <c r="B173">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>TECHNISCHE UNIVERSITAT DRESDEN</v>
+        <v>CHINESE ACADEMY OF ENGINEERING PHYSICS</v>
       </c>
       <c r="B174">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>UNIVERSIDAD DEL BIO BIO</v>
+        <v>CHINESE ACADEMY OF FORESTRY</v>
       </c>
       <c r="B175">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>UNIVERSITE PSL</v>
+        <v>DALIAN INSTITUTE OF CHEMICAL PHYSICS CAS</v>
       </c>
       <c r="B176">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>UNIVERSITI SAINS MALAYSIA</v>
+        <v>EAST CHINA NORMAL UNIVERSITY</v>
       </c>
       <c r="B177">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>UNIVERSITY OF MANCHESTER</v>
+        <v>EINDHOVEN UNIVERSITY OF TECHNOLOGY</v>
       </c>
       <c r="B178">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>YANGZHOU UNIVERSITY</v>
+        <v>ETH ZURICH</v>
       </c>
       <c r="B179">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>AMITY UNIVERSITY NOIDA</v>
+        <v>FOSHAN UNIVERSITY</v>
       </c>
       <c r="B180">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>BEIJING KEY LAB ELECTROCHEM PROC TECHNOL MAT</v>
+        <v>FUJIAN NORMAL UNIVERSITY</v>
       </c>
       <c r="B181">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>CARNEGIE MELLON UNIVERSITY</v>
+        <v>GEORGIA INSTITUTE OF TECHNOLOGY</v>
       </c>
       <c r="B182">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>CHANG AN UNIVERSITY</v>
+        <v>HANGZHOU NORMAL UNIVERSITY</v>
       </c>
       <c r="B183">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>CHANGCHUN INSTITUTE OF APPLIED CHEMISTRY CAS</v>
+        <v>INSTITUT NATIONAL DES SCIENCES APPLIQUEES DE LYON INSA LYON</v>
       </c>
       <c r="B184">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>CHONGQING JIAOTONG UNIVERSITY</v>
+        <v>INSTITUTE OF CHEMISTRY CAS</v>
       </c>
       <c r="B185">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>EGYPTIAN PETROLEUM RESEARCH INSTITUTE EPRI</v>
+        <v>JINAN UNIVERSITY</v>
       </c>
       <c r="B186">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>ETH ZURICH</v>
+        <v>JOHANNES GUTENBERG UNIVERSITY OF MAINZ</v>
       </c>
       <c r="B187">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>GACHON UNIVERSITY</v>
+        <v>KOREA RESEARCH INSTITUTE OF CHEMICAL TECHNOLOGY KRICT</v>
       </c>
       <c r="B188">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>GEORGIA INSTITUTE OF TECHNOLOGY</v>
+        <v>MOTILAL NEHRU NATIONAL INSTITUTE OF TECHNOLOGY</v>
       </c>
       <c r="B189">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>GUIZHOU UNIVERSITY</v>
+        <v>NORTHWEST NORMAL UNIVERSITY CHINA</v>
       </c>
       <c r="B190">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>HANYANG UNIVERSITY</v>
+        <v>SHANGHAI UNIVERSITY</v>
       </c>
       <c r="B191">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>INSTITUTE OF PROCESS ENGINEERING CAS</v>
+        <v>SHANGHAI UNIVERSITY OF ENGINEERING SCIENCE</v>
       </c>
       <c r="B192">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>ISFAHAN UNIVERSITY OF TECHNOLOGY</v>
+        <v>TAIYUAN UNIVERSITY OF TECHNOLOGY</v>
       </c>
       <c r="B193">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>KING SAUD UNIVERSITY</v>
+        <v>TIANJIN UNIVERSITY OF TECHNOLOGY</v>
       </c>
       <c r="B194">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>KOREA ADVANCED INSTITUTE OF SCIENCE TECHNOLOGY KAIST</v>
+        <v>UNIVERSITE PSL</v>
       </c>
       <c r="B195">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>KOREA INSTITUTE OF INDUSTRIAL TECHNOLOGY KITECH</v>
+        <v>UNIVERSITY OF CALIFORNIA LOS ANGELES</v>
       </c>
       <c r="B196">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>KOREA RESEARCH INSTITUTE OF CHEMICAL TECHNOLOGY KRICT</v>
+        <v>UNIVERSITY OF CINCINNATI</v>
       </c>
       <c r="B197">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>LOS ALAMOS NATIONAL LABORATORY</v>
+        <v>UNIVERSITY OF LIVERPOOL</v>
       </c>
       <c r="B198">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>LOUISIANA STATE UNIVERSITY</v>
+        <v>UNIVERSITY OF PENNSYLVANIA</v>
       </c>
       <c r="B199">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>LOUISIANA STATE UNIVERSITY SYSTEM</v>
+        <v>WUYI UNIVERSITY</v>
       </c>
       <c r="B200">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>LUOYANG SHIP MAT RES INST LSMRI</v>
+        <v>XIANGTAN UNIVERSITY</v>
       </c>
       <c r="B201">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
